--- a/data/probe_mapping.xlsx
+++ b/data/probe_mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="188" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="150" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -2029,12 +2029,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2045,7 +2051,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -2095,7 +2101,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2112,19 +2118,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2152,19 +2166,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2225,7 +2239,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -2258,7 +2272,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -2279,8 +2293,8 @@
   </sheetPr>
   <dimension ref="1:142"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A114" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:J142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2296,41 +2310,41 @@
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="n">
@@ -2339,30 +2353,30 @@
       <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="8" t="n">
+      <c r="I2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="10" t="n">
         <v>468</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="n">
@@ -2371,30 +2385,30 @@
       <c r="C3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="11" t="n">
+      <c r="I3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="13" t="n">
         <v>504</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="n">
@@ -2403,30 +2417,30 @@
       <c r="C4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="8" t="n">
+      <c r="I4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="10" t="n">
         <v>514</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="n">
@@ -2435,30 +2449,30 @@
       <c r="C5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="8" t="n">
+      <c r="I5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="10" t="n">
         <v>1144</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="n">
@@ -2467,30 +2481,30 @@
       <c r="C6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="8" t="n">
+      <c r="I6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="10" t="n">
         <v>314</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="n">
@@ -2499,30 +2513,30 @@
       <c r="C7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="8" t="n">
+      <c r="I7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="10" t="n">
         <v>490</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="n">
@@ -2531,30 +2545,30 @@
       <c r="C8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="11" t="n">
+      <c r="I8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="13" t="n">
         <v>783</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="n">
@@ -2563,30 +2577,30 @@
       <c r="C9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="8" t="n">
+      <c r="I9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="10" t="n">
         <v>513</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
@@ -2595,30 +2609,30 @@
       <c r="C10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="8" t="n">
+      <c r="I10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="10" t="n">
         <v>1276</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
@@ -2627,30 +2641,30 @@
       <c r="C11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="8" t="n">
+      <c r="I11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="10" t="n">
         <v>299</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="n">
@@ -2659,30 +2673,30 @@
       <c r="C12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="8" t="n">
+      <c r="I12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="10" t="n">
         <v>210</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="n">
@@ -2691,30 +2705,30 @@
       <c r="C13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="8" t="n">
+      <c r="I13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="10" t="n">
         <v>167</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="2" t="n">
@@ -2723,30 +2737,30 @@
       <c r="C14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="8" t="n">
+      <c r="I14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="10" t="n">
         <v>359</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="2" t="n">
@@ -2755,30 +2769,30 @@
       <c r="C15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="8" t="n">
+      <c r="I15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="10" t="n">
         <v>445</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="2" t="n">
@@ -2787,30 +2801,30 @@
       <c r="C16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="8" t="n">
+      <c r="I16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="10" t="n">
         <v>222</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="2" t="n">
@@ -2819,30 +2833,30 @@
       <c r="C17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="8" t="n">
+      <c r="I17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="10" t="n">
         <v>291</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="2" t="n">
@@ -2851,30 +2865,30 @@
       <c r="C18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="8" t="n">
+      <c r="I18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="10" t="n">
         <v>218</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="2" t="n">
@@ -2883,30 +2897,30 @@
       <c r="C19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="8" t="n">
+      <c r="I19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="10" t="n">
         <v>509</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="2" t="n">
@@ -2915,30 +2929,30 @@
       <c r="C20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="8" t="n">
+      <c r="I20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="10" t="n">
         <v>289</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="2" t="n">
@@ -2947,30 +2961,30 @@
       <c r="C21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="8" t="n">
+      <c r="I21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="10" t="n">
         <v>848</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="2" t="n">
@@ -2979,30 +2993,30 @@
       <c r="C22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="8" t="n">
+      <c r="I22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="10" t="n">
         <v>268</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="2" t="n">
@@ -3011,30 +3025,30 @@
       <c r="C23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="8" t="n">
+      <c r="I23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="10" t="n">
         <v>362</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="2" t="n">
@@ -3043,30 +3057,30 @@
       <c r="C24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="8" t="n">
+      <c r="I24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="10" t="n">
         <v>222</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="2" t="n">
@@ -3075,30 +3089,30 @@
       <c r="C25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="8" t="n">
+      <c r="I25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="10" t="n">
         <v>1025</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="2" t="n">
@@ -3107,30 +3121,30 @@
       <c r="C26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="8" t="n">
+      <c r="I26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="10" t="n">
         <v>225</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="2" t="n">
@@ -3139,30 +3153,30 @@
       <c r="C27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="8" t="n">
+      <c r="I27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="10" t="n">
         <v>422</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="2" t="n">
@@ -3171,30 +3185,30 @@
       <c r="C28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="8" t="n">
+      <c r="I28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="10" t="n">
         <v>414</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="2" t="n">
@@ -3203,30 +3217,30 @@
       <c r="C29" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="8" t="n">
+      <c r="I29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="10" t="n">
         <v>467</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="2" t="n">
@@ -3235,30 +3249,30 @@
       <c r="C30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="8" t="n">
+      <c r="I30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="10" t="n">
         <v>503</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="2" t="n">
@@ -3267,30 +3281,30 @@
       <c r="C31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="8" t="n">
+      <c r="I31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="10" t="n">
         <v>535</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="2" t="n">
@@ -3299,30 +3313,30 @@
       <c r="C32" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="8" t="n">
+      <c r="I32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="10" t="n">
         <v>212</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="2" t="n">
@@ -3331,30 +3345,30 @@
       <c r="C33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="8" t="n">
+      <c r="I33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="10" t="n">
         <v>657</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="2" t="n">
@@ -3363,30 +3377,30 @@
       <c r="C34" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="I34" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="8" t="n">
+      <c r="I34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="10" t="n">
         <v>1543</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="2" t="n">
@@ -3395,30 +3409,30 @@
       <c r="C35" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="I35" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="8" t="n">
+      <c r="I35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="10" t="n">
         <v>678</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="2" t="n">
@@ -3427,30 +3441,30 @@
       <c r="C36" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="I36" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="8" t="n">
+      <c r="I36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="10" t="n">
         <v>490</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="2" t="n">
@@ -3459,30 +3473,30 @@
       <c r="C37" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" s="8" t="n">
+      <c r="I37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="10" t="n">
         <v>431</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B38" s="2" t="n">
@@ -3491,30 +3505,30 @@
       <c r="C38" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="I38" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="8" t="n">
+      <c r="I38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="10" t="n">
         <v>296</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="2" t="n">
@@ -3523,30 +3537,30 @@
       <c r="C39" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="I39" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" s="8" t="n">
+      <c r="I39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="10" t="n">
         <v>260</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="2" t="n">
@@ -3555,30 +3569,30 @@
       <c r="C40" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="I40" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" s="8" t="n">
+      <c r="I40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="10" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B41" s="2" t="n">
@@ -3587,30 +3601,30 @@
       <c r="C41" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="I41" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41" s="8" t="n">
+      <c r="I41" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="10" t="n">
         <v>422</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="2" t="n">
@@ -3619,18 +3633,18 @@
       <c r="C42" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B43" s="2" t="n">
@@ -3639,30 +3653,30 @@
       <c r="C43" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="I43" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J43" s="8" t="n">
+      <c r="I43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="10" t="n">
         <v>375</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B44" s="2" t="n">
@@ -3671,30 +3685,30 @@
       <c r="C44" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="I44" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J44" s="8" t="n">
+      <c r="I44" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="10" t="n">
         <v>474</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B45" s="2" t="n">
@@ -3703,30 +3717,30 @@
       <c r="C45" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="I45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J45" s="8" t="n">
+      <c r="I45" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="10" t="n">
         <v>917</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="2" t="n">
@@ -3735,30 +3749,30 @@
       <c r="C46" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="I46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J46" s="8" t="n">
+      <c r="I46" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="10" t="n">
         <v>604</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B47" s="2" t="n">
@@ -3767,30 +3781,30 @@
       <c r="C47" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="I47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J47" s="8" t="n">
+      <c r="I47" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="10" t="n">
         <v>358</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B48" s="2" t="n">
@@ -3799,30 +3813,30 @@
       <c r="C48" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H48" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="I48" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J48" s="8" t="n">
+      <c r="I48" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="10" t="n">
         <v>490</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B49" s="2" t="n">
@@ -3831,30 +3845,30 @@
       <c r="C49" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H49" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="I49" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J49" s="8" t="n">
+      <c r="I49" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="10" t="n">
         <v>148</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B50" s="2" t="n">
@@ -3863,30 +3877,30 @@
       <c r="C50" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H50" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="I50" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J50" s="8" t="n">
+      <c r="I50" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="10" t="n">
         <v>182</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B51" s="2" t="n">
@@ -3895,30 +3909,30 @@
       <c r="C51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="G51" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="H51" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="I51" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J51" s="8" t="n">
+      <c r="I51" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="10" t="n">
         <v>309</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B52" s="2" t="n">
@@ -3927,30 +3941,30 @@
       <c r="C52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="H52" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="I52" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J52" s="8" t="n">
+      <c r="I52" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="10" t="n">
         <v>1379</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B53" s="2" t="n">
@@ -3959,30 +3973,30 @@
       <c r="C53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="H53" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="I53" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J53" s="8" t="n">
+      <c r="I53" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="10" t="n">
         <v>193</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B54" s="2" t="n">
@@ -3991,30 +4005,30 @@
       <c r="C54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="H54" s="10" t="s">
+      <c r="H54" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="I54" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J54" s="8" t="n">
+      <c r="I54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="10" t="n">
         <v>454</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B55" s="2" t="n">
@@ -4023,30 +4037,30 @@
       <c r="C55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G55" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="I55" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J55" s="8" t="n">
+      <c r="I55" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="10" t="n">
         <v>269</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B56" s="2" t="n">
@@ -4055,30 +4069,30 @@
       <c r="C56" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="H56" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="I56" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J56" s="8" t="n">
+      <c r="I56" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="10" t="n">
         <v>158</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B57" s="2" t="n">
@@ -4087,30 +4101,30 @@
       <c r="C57" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G57" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="H57" s="10" t="s">
+      <c r="H57" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="I57" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J57" s="8" t="n">
+      <c r="I57" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="10" t="n">
         <v>132</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B58" s="2" t="n">
@@ -4119,30 +4133,30 @@
       <c r="C58" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="H58" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="I58" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J58" s="8" t="n">
+      <c r="I58" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="10" t="n">
         <v>351</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B59" s="2" t="n">
@@ -4151,30 +4165,30 @@
       <c r="C59" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G59" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H59" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="I59" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J59" s="8" t="n">
+      <c r="I59" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" s="10" t="n">
         <v>590</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B60" s="2" t="n">
@@ -4183,30 +4197,30 @@
       <c r="C60" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G60" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="H60" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="I60" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J60" s="8" t="n">
+      <c r="I60" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="10" t="n">
         <v>971</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B61" s="2" t="n">
@@ -4215,30 +4229,30 @@
       <c r="C61" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G61" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="H61" s="10" t="s">
+      <c r="H61" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="I61" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J61" s="8" t="n">
+      <c r="I61" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" s="10" t="n">
         <v>390</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B62" s="2" t="n">
@@ -4247,30 +4261,30 @@
       <c r="C62" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="G62" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="H62" s="10" t="s">
+      <c r="H62" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="I62" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J62" s="8" t="n">
+      <c r="I62" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" s="10" t="n">
         <v>155</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B63" s="2" t="n">
@@ -4279,30 +4293,30 @@
       <c r="C63" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G63" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="H63" s="10" t="s">
+      <c r="H63" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="I63" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J63" s="8" t="n">
+      <c r="I63" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="10" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B64" s="2" t="n">
@@ -4311,30 +4325,30 @@
       <c r="C64" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F64" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G64" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="H64" s="10" t="s">
+      <c r="H64" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="I64" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J64" s="8" t="n">
+      <c r="I64" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="10" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B65" s="2" t="n">
@@ -4343,30 +4357,30 @@
       <c r="C65" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="D65" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G65" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="H65" s="10" t="s">
+      <c r="H65" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="I65" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J65" s="8" t="n">
+      <c r="I65" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="10" t="n">
         <v>359</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B66" s="2" t="n">
@@ -4375,30 +4389,30 @@
       <c r="C66" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="G66" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="H66" s="10" t="s">
+      <c r="H66" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="I66" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J66" s="8" t="n">
+      <c r="I66" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" s="10" t="n">
         <v>178</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B67" s="2" t="n">
@@ -4407,30 +4421,30 @@
       <c r="C67" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G67" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="H67" s="10" t="s">
+      <c r="H67" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="I67" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J67" s="8" t="n">
+      <c r="I67" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67" s="10" t="n">
         <v>131</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B68" s="2" t="n">
@@ -4439,30 +4453,30 @@
       <c r="C68" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="G68" s="10" t="s">
+      <c r="G68" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="H68" s="10" t="s">
+      <c r="H68" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="I68" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J68" s="8" t="n">
+      <c r="I68" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" s="10" t="n">
         <v>474</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B69" s="2" t="n">
@@ -4471,30 +4485,30 @@
       <c r="C69" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="D69" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="G69" s="10" t="s">
+      <c r="G69" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="H69" s="10" t="s">
+      <c r="H69" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="I69" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J69" s="8" t="n">
+      <c r="I69" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="10" t="n">
         <v>97</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B70" s="2" t="n">
@@ -4503,30 +4517,30 @@
       <c r="C70" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D70" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="G70" s="10" t="s">
+      <c r="G70" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="H70" s="10" t="s">
+      <c r="H70" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="I70" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J70" s="8" t="n">
+      <c r="I70" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="10" t="n">
         <v>263</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B71" s="2" t="n">
@@ -4535,30 +4549,30 @@
       <c r="C71" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D71" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G71" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="H71" s="10" t="s">
+      <c r="H71" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="I71" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J71" s="8" t="n">
+      <c r="I71" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" s="10" t="n">
         <v>199</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B72" s="2" t="n">
@@ -4567,30 +4581,30 @@
       <c r="C72" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="F72" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G72" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="H72" s="10" t="s">
+      <c r="H72" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="I72" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J72" s="8" t="n">
+      <c r="I72" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" s="10" t="n">
         <v>349</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B73" s="2" t="n">
@@ -4599,30 +4613,30 @@
       <c r="C73" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D73" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F73" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="G73" s="10" t="s">
+      <c r="G73" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="H73" s="10" t="s">
+      <c r="H73" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="I73" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J73" s="8" t="n">
+      <c r="I73" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" s="10" t="n">
         <v>169</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B74" s="2" t="n">
@@ -4631,30 +4645,30 @@
       <c r="C74" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="G74" s="10" t="s">
+      <c r="G74" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="H74" s="10" t="s">
+      <c r="H74" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="I74" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J74" s="8" t="n">
+      <c r="I74" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" s="10" t="n">
         <v>366</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B75" s="2" t="n">
@@ -4663,30 +4677,30 @@
       <c r="C75" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F75" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="G75" s="10" t="s">
+      <c r="G75" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="H75" s="10" t="s">
+      <c r="H75" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="I75" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J75" s="8" t="n">
+      <c r="I75" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75" s="10" t="n">
         <v>359</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B76" s="2" t="n">
@@ -4695,30 +4709,30 @@
       <c r="C76" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D76" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="G76" s="10" t="s">
+      <c r="G76" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="H76" s="10" t="s">
+      <c r="H76" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="I76" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J76" s="8" t="n">
+      <c r="I76" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="10" t="n">
         <v>96</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B77" s="2" t="n">
@@ -4727,30 +4741,30 @@
       <c r="C77" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="F77" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="G77" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="H77" s="10" t="s">
+      <c r="H77" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="I77" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J77" s="8" t="n">
+      <c r="I77" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" s="10" t="n">
         <v>235</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B78" s="2" t="n">
@@ -4759,30 +4773,30 @@
       <c r="C78" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="G78" s="10" t="s">
+      <c r="G78" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="H78" s="10" t="s">
+      <c r="H78" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="I78" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J78" s="8" t="n">
+      <c r="I78" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" s="10" t="n">
         <v>575</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B79" s="2" t="n">
@@ -4791,30 +4805,30 @@
       <c r="C79" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="D79" s="15" t="s">
+      <c r="D79" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="G79" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="H79" s="10" t="s">
+      <c r="H79" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="I79" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J79" s="8" t="n">
+      <c r="I79" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79" s="10" t="n">
         <v>178</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B80" s="2" t="n">
@@ -4823,30 +4837,30 @@
       <c r="C80" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="D80" s="15" t="s">
+      <c r="D80" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="G80" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="H80" s="10" t="s">
+      <c r="H80" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="I80" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J80" s="8" t="n">
+      <c r="I80" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J80" s="10" t="n">
         <v>373</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B81" s="2" t="n">
@@ -4855,30 +4869,30 @@
       <c r="C81" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="D81" s="15" t="s">
+      <c r="D81" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="F81" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="G81" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="H81" s="10" t="s">
+      <c r="H81" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="I81" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J81" s="8" t="n">
+      <c r="I81" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" s="10" t="n">
         <v>1217</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B82" s="2" t="n">
@@ -4887,30 +4901,30 @@
       <c r="C82" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="D82" s="15" t="s">
+      <c r="D82" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="F82" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G82" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="H82" s="10" t="s">
+      <c r="H82" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="I82" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J82" s="8" t="n">
+      <c r="I82" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" s="10" t="n">
         <v>1379</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B83" s="2" t="n">
@@ -4919,30 +4933,30 @@
       <c r="C83" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D83" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="F83" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G83" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="H83" s="10" t="s">
+      <c r="H83" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="I83" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J83" s="8" t="n">
+      <c r="I83" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" s="10" t="n">
         <v>189</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B84" s="2" t="n">
@@ -4951,30 +4965,30 @@
       <c r="C84" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="F84" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="G84" s="10" t="s">
+      <c r="G84" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="H84" s="10" t="s">
+      <c r="H84" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="I84" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J84" s="8" t="n">
+      <c r="I84" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J84" s="10" t="n">
         <v>513</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B85" s="2" t="n">
@@ -4983,30 +4997,30 @@
       <c r="C85" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="D85" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="F85" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="G85" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="H85" s="10" t="s">
+      <c r="H85" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="I85" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J85" s="8" t="n">
+      <c r="I85" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J85" s="10" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B86" s="2" t="n">
@@ -5015,30 +5029,30 @@
       <c r="C86" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D86" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="G86" s="10" t="s">
+      <c r="G86" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="H86" s="10" t="s">
+      <c r="H86" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="I86" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J86" s="8" t="n">
+      <c r="I86" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" s="10" t="n">
         <v>1456</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B87" s="2" t="n">
@@ -5047,30 +5061,30 @@
       <c r="C87" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="D87" s="15" t="s">
+      <c r="D87" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="F87" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="G87" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="H87" s="10" t="s">
+      <c r="H87" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="I87" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J87" s="8" t="n">
+      <c r="I87" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" s="10" t="n">
         <v>354</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B88" s="2" t="n">
@@ -5079,30 +5093,30 @@
       <c r="C88" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="D88" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F88" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="G88" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="H88" s="10" t="s">
+      <c r="H88" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="I88" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J88" s="8" t="n">
+      <c r="I88" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J88" s="10" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B89" s="2" t="n">
@@ -5111,30 +5125,30 @@
       <c r="C89" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D89" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="F89" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="G89" s="10" t="s">
+      <c r="G89" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="H89" s="10" t="s">
+      <c r="H89" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="I89" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J89" s="8" t="n">
+      <c r="I89" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" s="10" t="n">
         <v>211</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B90" s="2" t="n">
@@ -5143,30 +5157,30 @@
       <c r="C90" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="D90" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="F90" s="9" t="s">
+      <c r="F90" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G90" s="10" t="s">
+      <c r="G90" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="H90" s="10" t="s">
+      <c r="H90" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="I90" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J90" s="8" t="n">
+      <c r="I90" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J90" s="10" t="n">
         <v>375</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B91" s="2" t="n">
@@ -5175,30 +5189,30 @@
       <c r="C91" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="D91" s="15" t="s">
+      <c r="D91" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="F91" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="G91" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="H91" s="10" t="s">
+      <c r="H91" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="I91" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J91" s="8" t="n">
+      <c r="I91" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91" s="10" t="n">
         <v>140</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B92" s="2" t="n">
@@ -5207,30 +5221,30 @@
       <c r="C92" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="D92" s="15" t="s">
+      <c r="D92" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="F92" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="G92" s="10" t="s">
+      <c r="G92" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="H92" s="10" t="s">
+      <c r="H92" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="I92" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J92" s="8" t="n">
+      <c r="I92" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" s="10" t="n">
         <v>1210</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B93" s="2" t="n">
@@ -5239,30 +5253,30 @@
       <c r="C93" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="D93" s="15" t="s">
+      <c r="D93" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="F93" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="G93" s="10" t="s">
+      <c r="G93" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="H93" s="10" t="s">
+      <c r="H93" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="I93" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J93" s="8" t="n">
+      <c r="I93" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J93" s="10" t="n">
         <v>97</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B94" s="2" t="n">
@@ -5271,30 +5285,30 @@
       <c r="C94" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="D94" s="15" t="s">
+      <c r="D94" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="G94" s="10" t="s">
+      <c r="G94" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="H94" s="10" t="s">
+      <c r="H94" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="I94" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J94" s="8" t="n">
+      <c r="I94" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J94" s="10" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B95" s="2" t="n">
@@ -5303,30 +5317,30 @@
       <c r="C95" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="D95" s="15" t="s">
+      <c r="D95" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="G95" s="10" t="s">
+      <c r="G95" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="H95" s="10" t="s">
+      <c r="H95" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="I95" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J95" s="8" t="n">
+      <c r="I95" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" s="10" t="n">
         <v>917</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -5335,28 +5349,28 @@
       <c r="C96" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D96" s="17" t="s">
+      <c r="D96" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F96" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="G96" s="10" t="s">
+      <c r="G96" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H96" s="10" t="s">
+      <c r="H96" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="I96" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J96" s="18"/>
+      <c r="I96" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" s="20"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -5365,30 +5379,30 @@
       <c r="C97" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D97" s="17" t="s">
+      <c r="D97" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="F97" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="G97" s="10" t="s">
+      <c r="G97" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="H97" s="10" t="s">
+      <c r="H97" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="I97" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J97" s="8" t="n">
+      <c r="I97" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J97" s="10" t="n">
         <v>202</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -5397,30 +5411,30 @@
       <c r="C98" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D98" s="17" t="s">
+      <c r="D98" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="F98" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="G98" s="10" t="s">
+      <c r="G98" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="H98" s="10" t="s">
+      <c r="H98" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="I98" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J98" s="8" t="n">
+      <c r="I98" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" s="10" t="n">
         <v>140</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -5429,30 +5443,30 @@
       <c r="C99" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D99" s="17" t="s">
+      <c r="D99" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="F99" s="9" t="s">
+      <c r="F99" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="G99" s="10" t="s">
+      <c r="G99" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="H99" s="10" t="s">
+      <c r="H99" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="I99" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J99" s="8" t="n">
+      <c r="I99" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99" s="10" t="n">
         <v>302</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -5461,30 +5475,30 @@
       <c r="C100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="D100" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="F100" s="9" t="s">
+      <c r="F100" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="G100" s="10" t="s">
+      <c r="G100" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="H100" s="10" t="s">
+      <c r="H100" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="I100" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J100" s="8" t="n">
+      <c r="I100" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J100" s="10" t="n">
         <v>1453</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -5493,30 +5507,30 @@
       <c r="C101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D101" s="17" t="s">
+      <c r="D101" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="F101" s="9" t="s">
+      <c r="F101" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="G101" s="10" t="s">
+      <c r="G101" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="H101" s="10" t="s">
+      <c r="H101" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="I101" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J101" s="8" t="n">
+      <c r="I101" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" s="10" t="n">
         <v>744</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -5525,30 +5539,30 @@
       <c r="C102" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D102" s="17" t="s">
+      <c r="D102" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="F102" s="9" t="s">
+      <c r="F102" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="G102" s="10" t="s">
+      <c r="G102" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="H102" s="10" t="s">
+      <c r="H102" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="I102" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J102" s="8" t="n">
+      <c r="I102" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J102" s="10" t="n">
         <v>153</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="16" t="s">
+      <c r="A103" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -5557,30 +5571,30 @@
       <c r="C103" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D103" s="17" t="s">
+      <c r="D103" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E103" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="F103" s="9" t="s">
+      <c r="F103" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="G103" s="10" t="s">
+      <c r="G103" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="H103" s="10" t="s">
+      <c r="H103" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="I103" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J103" s="8" t="n">
+      <c r="I103" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J103" s="10" t="n">
         <v>279</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="16" t="s">
+      <c r="A104" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -5589,30 +5603,30 @@
       <c r="C104" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D104" s="17" t="s">
+      <c r="D104" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="F104" s="9" t="s">
+      <c r="F104" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="G104" s="10" t="s">
+      <c r="G104" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="H104" s="10" t="s">
+      <c r="H104" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="I104" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J104" s="8" t="n">
+      <c r="I104" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J104" s="10" t="n">
         <v>204</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="16" t="s">
+      <c r="A105" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -5621,30 +5635,30 @@
       <c r="C105" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D105" s="17" t="s">
+      <c r="D105" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="F105" s="9" t="s">
+      <c r="F105" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="G105" s="10" t="s">
+      <c r="G105" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="H105" s="10" t="s">
+      <c r="H105" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="I105" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J105" s="8" t="n">
+      <c r="I105" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J105" s="10" t="n">
         <v>592</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="16" t="s">
+      <c r="A106" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -5653,30 +5667,30 @@
       <c r="C106" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="D106" s="17" t="s">
+      <c r="D106" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="F106" s="9" t="s">
+      <c r="F106" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="G106" s="10" t="s">
+      <c r="G106" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="H106" s="10" t="s">
+      <c r="H106" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="I106" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J106" s="8" t="n">
+      <c r="I106" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J106" s="10" t="n">
         <v>862</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="16" t="s">
+      <c r="A107" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -5685,30 +5699,30 @@
       <c r="C107" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D107" s="17" t="s">
+      <c r="D107" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="F107" s="9" t="s">
+      <c r="F107" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="G107" s="10" t="s">
+      <c r="G107" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="H107" s="10" t="s">
+      <c r="H107" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="I107" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J107" s="8" t="n">
+      <c r="I107" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J107" s="10" t="n">
         <v>3084</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="16" t="s">
+      <c r="A108" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -5717,30 +5731,30 @@
       <c r="C108" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D108" s="17" t="s">
+      <c r="D108" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E108" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="F108" s="9" t="s">
+      <c r="F108" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="G108" s="10" t="s">
+      <c r="G108" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="H108" s="10" t="s">
+      <c r="H108" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="I108" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J108" s="8" t="n">
+      <c r="I108" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J108" s="10" t="n">
         <v>205</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -5749,30 +5763,30 @@
       <c r="C109" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="D109" s="17" t="s">
+      <c r="D109" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="F109" s="9" t="s">
+      <c r="F109" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="G109" s="10" t="s">
+      <c r="G109" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="H109" s="10" t="s">
+      <c r="H109" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="I109" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J109" s="8" t="n">
+      <c r="I109" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J109" s="10" t="n">
         <v>1864</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -5781,30 +5795,30 @@
       <c r="C110" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="D110" s="17" t="s">
+      <c r="D110" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E110" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="F110" s="9" t="s">
+      <c r="F110" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="G110" s="10" t="s">
+      <c r="G110" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="H110" s="10" t="s">
+      <c r="H110" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="I110" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J110" s="8" t="n">
+      <c r="I110" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J110" s="10" t="n">
         <v>196</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -5813,30 +5827,30 @@
       <c r="C111" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="D111" s="17" t="s">
+      <c r="D111" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E111" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="F111" s="9" t="s">
+      <c r="F111" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="G111" s="10" t="s">
+      <c r="G111" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="H111" s="10" t="s">
+      <c r="H111" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="I111" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J111" s="8" t="n">
+      <c r="I111" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J111" s="10" t="n">
         <v>241</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="16" t="s">
+      <c r="A112" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -5845,30 +5859,30 @@
       <c r="C112" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="D112" s="17" t="s">
+      <c r="D112" s="19" t="s">
         <v>515</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E112" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="F112" s="9" t="s">
+      <c r="F112" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="G112" s="10" t="s">
+      <c r="G112" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="H112" s="10" t="s">
+      <c r="H112" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="I112" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J112" s="8" t="n">
+      <c r="I112" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J112" s="10" t="n">
         <v>496</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -5877,30 +5891,30 @@
       <c r="C113" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D113" s="17" t="s">
+      <c r="D113" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E113" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="F113" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="G113" s="10" t="s">
+      <c r="G113" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="H113" s="10" t="s">
+      <c r="H113" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="I113" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J113" s="8" t="n">
+      <c r="I113" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J113" s="10" t="n">
         <v>2318</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="16" t="s">
+      <c r="A114" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -5909,30 +5923,30 @@
       <c r="C114" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="D114" s="17" t="s">
+      <c r="D114" s="19" t="s">
         <v>524</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E114" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="F114" s="9" t="s">
+      <c r="F114" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="G114" s="10" t="s">
+      <c r="G114" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="H114" s="10" t="s">
+      <c r="H114" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="I114" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J114" s="8" t="n">
+      <c r="I114" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J114" s="10" t="n">
         <v>884</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -5941,30 +5955,30 @@
       <c r="C115" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D115" s="17" t="s">
+      <c r="D115" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E115" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="F115" s="9" t="s">
+      <c r="F115" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="G115" s="10" t="s">
+      <c r="G115" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="H115" s="10" t="s">
+      <c r="H115" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="I115" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J115" s="8" t="n">
+      <c r="I115" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J115" s="10" t="n">
         <v>220</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="16" t="s">
+      <c r="A116" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -5973,30 +5987,30 @@
       <c r="C116" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="D116" s="17" t="s">
+      <c r="D116" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E116" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="F116" s="9" t="s">
+      <c r="F116" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="G116" s="10" t="s">
+      <c r="G116" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="H116" s="10" t="s">
+      <c r="H116" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="I116" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J116" s="8" t="n">
+      <c r="I116" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J116" s="10" t="n">
         <v>367</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -6005,30 +6019,30 @@
       <c r="C117" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="D117" s="17" t="s">
+      <c r="D117" s="19" t="s">
         <v>538</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E117" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="F117" s="9" t="s">
+      <c r="F117" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="G117" s="10" t="s">
+      <c r="G117" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="H117" s="10" t="s">
+      <c r="H117" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="I117" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J117" s="8" t="n">
+      <c r="I117" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J117" s="10" t="n">
         <v>209</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="16" t="s">
+      <c r="A118" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -6037,30 +6051,30 @@
       <c r="C118" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="D118" s="17" t="s">
+      <c r="D118" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="F118" s="9" t="s">
+      <c r="F118" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="G118" s="10" t="s">
+      <c r="G118" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="H118" s="10" t="s">
+      <c r="H118" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="I118" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J118" s="8" t="n">
+      <c r="I118" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J118" s="10" t="n">
         <v>428</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="16" t="s">
+      <c r="A119" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -6069,30 +6083,30 @@
       <c r="C119" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="D119" s="17" t="s">
+      <c r="D119" s="19" t="s">
         <v>548</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="E119" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="F119" s="9" t="s">
+      <c r="F119" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="G119" s="10" t="s">
+      <c r="G119" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="H119" s="10" t="s">
+      <c r="H119" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="I119" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J119" s="8" t="n">
+      <c r="I119" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J119" s="10" t="n">
         <v>844</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="16" t="s">
+      <c r="A120" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -6101,30 +6115,30 @@
       <c r="C120" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="D120" s="17" t="s">
+      <c r="D120" s="19" t="s">
         <v>552</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="E120" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="F120" s="9" t="s">
+      <c r="F120" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="G120" s="10" t="s">
+      <c r="G120" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="H120" s="10" t="s">
+      <c r="H120" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="I120" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J120" s="8" t="n">
+      <c r="I120" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J120" s="10" t="n">
         <v>348</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="16" t="s">
+      <c r="A121" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -6133,30 +6147,30 @@
       <c r="C121" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="D121" s="17" t="s">
+      <c r="D121" s="19" t="s">
         <v>557</v>
       </c>
-      <c r="E121" s="8" t="s">
+      <c r="E121" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="F121" s="9" t="s">
+      <c r="F121" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="G121" s="10" t="s">
+      <c r="G121" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="H121" s="10" t="s">
+      <c r="H121" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="I121" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J121" s="8" t="n">
+      <c r="I121" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J121" s="10" t="n">
         <v>2531</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="16" t="s">
+      <c r="A122" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -6165,30 +6179,30 @@
       <c r="C122" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="D122" s="17" t="s">
+      <c r="D122" s="19" t="s">
         <v>561</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="E122" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="F122" s="9" t="s">
+      <c r="F122" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="G122" s="10" t="s">
+      <c r="G122" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="H122" s="10" t="s">
+      <c r="H122" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="I122" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J122" s="8" t="n">
+      <c r="I122" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J122" s="10" t="n">
         <v>2110</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="16" t="s">
+      <c r="A123" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -6197,30 +6211,30 @@
       <c r="C123" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="D123" s="17" t="s">
+      <c r="D123" s="19" t="s">
         <v>566</v>
       </c>
-      <c r="E123" s="8" t="s">
+      <c r="E123" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="F123" s="9" t="s">
+      <c r="F123" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="G123" s="10" t="s">
+      <c r="G123" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="H123" s="10" t="s">
+      <c r="H123" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="I123" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J123" s="8" t="n">
+      <c r="I123" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J123" s="10" t="n">
         <v>192</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="16" t="s">
+      <c r="A124" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -6229,30 +6243,30 @@
       <c r="C124" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="D124" s="17" t="s">
+      <c r="D124" s="19" t="s">
         <v>570</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E124" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="F124" s="9" t="s">
+      <c r="F124" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="G124" s="10" t="s">
+      <c r="G124" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="H124" s="10" t="s">
+      <c r="H124" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="I124" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J124" s="8" t="n">
+      <c r="I124" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J124" s="10" t="n">
         <v>906</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="16" t="s">
+      <c r="A125" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -6261,30 +6275,30 @@
       <c r="C125" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="D125" s="17" t="s">
+      <c r="D125" s="19" t="s">
         <v>574</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="E125" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="F125" s="9" t="s">
+      <c r="F125" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="G125" s="10" t="s">
+      <c r="G125" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="H125" s="10" t="s">
+      <c r="H125" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="I125" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J125" s="8" t="n">
+      <c r="I125" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J125" s="10" t="n">
         <v>844</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="16" t="s">
+      <c r="A126" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -6293,30 +6307,30 @@
       <c r="C126" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="D126" s="17" t="s">
+      <c r="D126" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="E126" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="F126" s="9" t="s">
+      <c r="F126" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="G126" s="10" t="s">
+      <c r="G126" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="H126" s="10" t="s">
+      <c r="H126" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="I126" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J126" s="8" t="n">
+      <c r="I126" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J126" s="10" t="n">
         <v>2477</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="16" t="s">
+      <c r="A127" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -6325,30 +6339,30 @@
       <c r="C127" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="D127" s="17" t="s">
+      <c r="D127" s="19" t="s">
         <v>579</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E127" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="F127" s="9" t="s">
+      <c r="F127" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G127" s="10" t="s">
+      <c r="G127" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="H127" s="10" t="s">
+      <c r="H127" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="I127" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J127" s="8" t="n">
+      <c r="I127" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" s="10" t="n">
         <v>426</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="16" t="s">
+      <c r="A128" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -6357,30 +6371,30 @@
       <c r="C128" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="D128" s="17" t="s">
+      <c r="D128" s="19" t="s">
         <v>584</v>
       </c>
-      <c r="E128" s="8" t="s">
+      <c r="E128" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="F128" s="9" t="s">
+      <c r="F128" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="G128" s="10" t="s">
+      <c r="G128" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="H128" s="10" t="s">
+      <c r="H128" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="I128" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J128" s="8" t="n">
+      <c r="I128" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" s="10" t="n">
         <v>317</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="16" t="s">
+      <c r="A129" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -6389,30 +6403,30 @@
       <c r="C129" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="D129" s="17" t="s">
+      <c r="D129" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="E129" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="F129" s="9" t="s">
+      <c r="F129" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="G129" s="10" t="s">
+      <c r="G129" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="H129" s="10" t="s">
+      <c r="H129" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="I129" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J129" s="8" t="n">
+      <c r="I129" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J129" s="10" t="n">
         <v>867</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="16" t="s">
+      <c r="A130" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -6421,30 +6435,30 @@
       <c r="C130" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="D130" s="17" t="s">
+      <c r="D130" s="19" t="s">
         <v>594</v>
       </c>
-      <c r="E130" s="8" t="s">
+      <c r="E130" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="F130" s="9" t="s">
+      <c r="F130" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="G130" s="10" t="s">
+      <c r="G130" s="12" t="s">
         <v>597</v>
       </c>
-      <c r="H130" s="10" t="s">
+      <c r="H130" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="I130" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J130" s="8" t="n">
+      <c r="I130" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J130" s="10" t="n">
         <v>298</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="16" t="s">
+      <c r="A131" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -6453,30 +6467,30 @@
       <c r="C131" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="D131" s="17" t="s">
+      <c r="D131" s="19" t="s">
         <v>598</v>
       </c>
-      <c r="E131" s="8" t="s">
+      <c r="E131" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="F131" s="9" t="s">
+      <c r="F131" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="G131" s="10" t="s">
+      <c r="G131" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="H131" s="10" t="s">
+      <c r="H131" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="I131" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J131" s="8" t="n">
+      <c r="I131" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" s="10" t="n">
         <v>747</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="16" t="s">
+      <c r="A132" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -6485,30 +6499,30 @@
       <c r="C132" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="D132" s="17" t="s">
+      <c r="D132" s="19" t="s">
         <v>601</v>
       </c>
-      <c r="E132" s="8" t="s">
+      <c r="E132" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="F132" s="9" t="s">
+      <c r="F132" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="G132" s="10" t="s">
+      <c r="G132" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="H132" s="10" t="s">
+      <c r="H132" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="I132" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J132" s="8" t="n">
+      <c r="I132" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J132" s="10" t="n">
         <v>377</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="16" t="s">
+      <c r="A133" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -6517,30 +6531,30 @@
       <c r="C133" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="D133" s="17" t="s">
+      <c r="D133" s="19" t="s">
         <v>606</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="E133" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="F133" s="9" t="s">
+      <c r="F133" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="G133" s="10" t="s">
+      <c r="G133" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="H133" s="10" t="s">
+      <c r="H133" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="I133" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J133" s="8" t="n">
+      <c r="I133" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J133" s="10" t="n">
         <v>403</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="16" t="s">
+      <c r="A134" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -6549,30 +6563,30 @@
       <c r="C134" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="D134" s="17" t="s">
+      <c r="D134" s="19" t="s">
         <v>611</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="E134" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="F134" s="9" t="s">
+      <c r="F134" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="G134" s="10" t="s">
+      <c r="G134" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="H134" s="10" t="s">
+      <c r="H134" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="I134" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J134" s="8" t="n">
+      <c r="I134" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J134" s="10" t="n">
         <v>414</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="16" t="s">
+      <c r="A135" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -6581,30 +6595,30 @@
       <c r="C135" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="D135" s="17" t="s">
+      <c r="D135" s="19" t="s">
         <v>615</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="E135" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="F135" s="9" t="s">
+      <c r="F135" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="G135" s="10" t="s">
+      <c r="G135" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="H135" s="10" t="s">
+      <c r="H135" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="I135" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J135" s="8" t="n">
+      <c r="I135" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J135" s="10" t="n">
         <v>476</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="16" t="s">
+      <c r="A136" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -6613,30 +6627,30 @@
       <c r="C136" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="D136" s="17" t="s">
+      <c r="D136" s="19" t="s">
         <v>619</v>
       </c>
-      <c r="E136" s="8" t="s">
+      <c r="E136" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="F136" s="9" t="s">
+      <c r="F136" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="G136" s="10" t="s">
+      <c r="G136" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="H136" s="10" t="s">
+      <c r="H136" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="I136" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J136" s="8" t="n">
+      <c r="I136" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J136" s="10" t="n">
         <v>1669</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="16" t="s">
+      <c r="A137" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -6645,30 +6659,30 @@
       <c r="C137" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="D137" s="17" t="s">
+      <c r="D137" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="E137" s="8" t="s">
+      <c r="E137" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="F137" s="9" t="s">
+      <c r="F137" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G137" s="10" t="s">
+      <c r="G137" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="H137" s="10" t="s">
+      <c r="H137" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="I137" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J137" s="8" t="n">
+      <c r="I137" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" s="10" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="16" t="s">
+      <c r="A138" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -6677,30 +6691,30 @@
       <c r="C138" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="D138" s="17" t="s">
+      <c r="D138" s="19" t="s">
         <v>623</v>
       </c>
-      <c r="E138" s="8" t="s">
+      <c r="E138" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="F138" s="9" t="s">
+      <c r="F138" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="G138" s="10" t="s">
+      <c r="G138" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="H138" s="10" t="s">
+      <c r="H138" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="I138" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J138" s="8" t="n">
+      <c r="I138" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J138" s="10" t="n">
         <v>1464</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="16" t="s">
+      <c r="A139" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -6709,30 +6723,30 @@
       <c r="C139" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="D139" s="17" t="s">
+      <c r="D139" s="19" t="s">
         <v>627</v>
       </c>
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="10" t="s">
         <v>628</v>
       </c>
-      <c r="F139" s="9" t="s">
+      <c r="F139" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="G139" s="10" t="s">
+      <c r="G139" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="H139" s="10" t="s">
+      <c r="H139" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="I139" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J139" s="8" t="n">
+      <c r="I139" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J139" s="10" t="n">
         <v>493</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="16" t="s">
+      <c r="A140" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -6741,30 +6755,30 @@
       <c r="C140" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="D140" s="17" t="s">
+      <c r="D140" s="19" t="s">
         <v>632</v>
       </c>
-      <c r="E140" s="8" t="s">
+      <c r="E140" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="F140" s="9" t="s">
+      <c r="F140" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="G140" s="10" t="s">
+      <c r="G140" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="H140" s="10" t="s">
+      <c r="H140" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="I140" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J140" s="8" t="n">
+      <c r="I140" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J140" s="10" t="n">
         <v>152</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="16" t="s">
+      <c r="A141" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -6773,30 +6787,30 @@
       <c r="C141" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="D141" s="17" t="s">
+      <c r="D141" s="19" t="s">
         <v>636</v>
       </c>
-      <c r="E141" s="8" t="s">
+      <c r="E141" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="F141" s="9" t="s">
+      <c r="F141" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="G141" s="10" t="s">
+      <c r="G141" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="H141" s="10" t="s">
+      <c r="H141" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="I141" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J141" s="8" t="n">
+      <c r="I141" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J141" s="10" t="n">
         <v>495</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="16" t="s">
+      <c r="A142" s="18" t="s">
         <v>439</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -6805,25 +6819,25 @@
       <c r="C142" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="D142" s="17" t="s">
+      <c r="D142" s="19" t="s">
         <v>640</v>
       </c>
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="F142" s="9" t="s">
+      <c r="F142" s="11" t="s">
         <v>642</v>
       </c>
-      <c r="G142" s="10" t="s">
+      <c r="G142" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="H142" s="10" t="s">
+      <c r="H142" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="I142" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J142" s="8" t="n">
+      <c r="I142" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J142" s="10" t="n">
         <v>2265</v>
       </c>
     </row>
